--- a/OLS/SIS/Input and Constants/sis_in_general.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_general.xlsx
@@ -172,7 +172,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
@@ -238,7 +238,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>

--- a/OLS/SIS/Input and Constants/sis_in_general.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_general.xlsx
@@ -169,10 +169,10 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
@@ -238,7 +238,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -252,7 +252,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>

--- a/OLS/SIS/Input and Constants/sis_in_general.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_general.xlsx
@@ -169,10 +169,10 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
